--- a/Symphony/2021/Others/Cash A.xlsx
+++ b/Symphony/2021/Others/Cash A.xlsx
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Currency Value</t>
-  </si>
-  <si>
-    <t>Qty.</t>
   </si>
   <si>
     <t>Amount</t>
@@ -69,16 +66,16 @@
     <t>Amount In Words :</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Date: 10.07.2021</t>
   </si>
   <si>
-    <t>Date: 08.07.2021</t>
+    <t>Quantity</t>
   </si>
   <si>
-    <t>Five Lac Taka Only.</t>
+    <t>Jafor Iqbal</t>
   </si>
   <si>
-    <t>Tanjib</t>
+    <t xml:space="preserve"> Nine Lac Taka Only.</t>
   </si>
 </sst>
 </file>
@@ -314,6 +311,27 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -321,34 +339,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -422,14 +419,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2286000</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -446,8 +443,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6953250" y="5334000"/>
-          <a:ext cx="1466850" cy="9525"/>
+          <a:off x="6915150" y="5133975"/>
+          <a:ext cx="1447800" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -522,14 +519,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2295525</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -546,8 +543,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6962775" y="12287250"/>
-          <a:ext cx="1457325" cy="9525"/>
+          <a:off x="6924675" y="11887200"/>
+          <a:ext cx="1438275" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -622,56 +619,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Connector 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92F56342-A68C-4CDA-AD91-6E5E5C5CBD6D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6953250" y="5334000"/>
-          <a:ext cx="1466850" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>45</xdr:row>
@@ -698,56 +645,6 @@
         <a:xfrm>
           <a:off x="1571625" y="12306300"/>
           <a:ext cx="1228725" cy="1588"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Connector 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D774EF-0DA8-4AF5-A477-477DFA29C2B2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6962775" y="12287250"/>
-          <a:ext cx="1457325" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1136,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N9:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,225 +1054,230 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-    </row>
-    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-    </row>
-    <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-    </row>
-    <row r="5" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+    </row>
+    <row r="5" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+      <c r="E5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="21"/>
       <c r="G5" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="12">
         <v>1000</v>
       </c>
-      <c r="E6" s="27">
-        <v>280</v>
-      </c>
-      <c r="F6" s="27"/>
+      <c r="E6" s="20">
+        <v>448</v>
+      </c>
+      <c r="F6" s="20"/>
       <c r="G6" s="12">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
-        <v>280000</v>
+        <v>448000</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="12">
         <v>500</v>
       </c>
-      <c r="E7" s="27">
-        <v>400</v>
-      </c>
-      <c r="F7" s="27"/>
+      <c r="E7" s="20">
+        <v>776</v>
+      </c>
+      <c r="F7" s="20"/>
       <c r="G7" s="12">
         <f t="shared" si="0"/>
-        <v>200000</v>
+        <v>388000</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="12">
         <v>100</v>
       </c>
-      <c r="E8" s="27">
-        <v>200</v>
-      </c>
-      <c r="F8" s="27"/>
+      <c r="E8" s="20">
+        <v>534</v>
+      </c>
+      <c r="F8" s="20"/>
       <c r="G8" s="12">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>53400</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="12">
         <v>50</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="E9" s="20">
+        <v>121</v>
+      </c>
+      <c r="F9" s="20"/>
       <c r="G9" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6050</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="12">
         <v>20</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
+      <c r="E10" s="20">
+        <v>145</v>
+      </c>
+      <c r="F10" s="20"/>
       <c r="G10" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="12">
         <v>10</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
+      <c r="E11" s="20">
+        <v>165</v>
+      </c>
+      <c r="F11" s="20"/>
       <c r="G11" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="32"/>
+      <c r="D12" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="30"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16">
         <f>SUM(G6:G11)</f>
-        <v>500000</v>
+        <v>900000</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -1387,73 +1289,73 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H15" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="22"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="3"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="22"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="22"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="9"/>
       <c r="D19" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
+      <c r="H19" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
@@ -1463,9 +1365,9 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
@@ -1552,61 +1454,61 @@
       <c r="J27" s="10"/>
     </row>
     <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+    </row>
+    <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-    </row>
-    <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
+      <c r="A30" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="str">
+      <c r="A31" s="24" t="str">
         <f>A4</f>
-        <v>Date: 08.07.2021</v>
-      </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
+        <v>Date: 10.07.2021</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
     </row>
     <row r="32" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
@@ -1615,12 +1517,12 @@
       <c r="D32" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="21"/>
+      <c r="G32" s="11" t="s">
         <v>1</v>
-      </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="11" t="s">
-        <v>2</v>
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
@@ -1633,13 +1535,13 @@
       <c r="D33" s="5">
         <v>1000</v>
       </c>
-      <c r="E33" s="27">
-        <v>280</v>
-      </c>
-      <c r="F33" s="27"/>
+      <c r="E33" s="20">
+        <v>448</v>
+      </c>
+      <c r="F33" s="20"/>
       <c r="G33" s="5">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
-        <v>280000</v>
+        <v>448000</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
@@ -1652,13 +1554,13 @@
       <c r="D34" s="5">
         <v>500</v>
       </c>
-      <c r="E34" s="27">
-        <v>400</v>
-      </c>
-      <c r="F34" s="27"/>
+      <c r="E34" s="20">
+        <v>776</v>
+      </c>
+      <c r="F34" s="20"/>
       <c r="G34" s="5">
         <f t="shared" si="1"/>
-        <v>200000</v>
+        <v>388000</v>
       </c>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
@@ -1671,13 +1573,13 @@
       <c r="D35" s="5">
         <v>100</v>
       </c>
-      <c r="E35" s="27">
-        <v>200</v>
-      </c>
-      <c r="F35" s="27"/>
+      <c r="E35" s="20">
+        <v>534</v>
+      </c>
+      <c r="F35" s="20"/>
       <c r="G35" s="5">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>53400</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
@@ -1690,11 +1592,13 @@
       <c r="D36" s="5">
         <v>50</v>
       </c>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
+      <c r="E36" s="20">
+        <v>121</v>
+      </c>
+      <c r="F36" s="20"/>
       <c r="G36" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6050</v>
       </c>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
@@ -1707,11 +1611,13 @@
       <c r="D37" s="5">
         <v>20</v>
       </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
+      <c r="E37" s="20">
+        <v>145</v>
+      </c>
+      <c r="F37" s="20"/>
       <c r="G37" s="5">
         <f>SUM(D37*E37)</f>
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
@@ -1724,11 +1630,13 @@
       <c r="D38" s="5">
         <v>10</v>
       </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
+      <c r="E38" s="20">
+        <v>165</v>
+      </c>
+      <c r="F38" s="20"/>
       <c r="G38" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
@@ -1738,14 +1646,14 @@
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
-      <c r="D39" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="30"/>
+      <c r="D39" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="32"/>
       <c r="F39" s="17"/>
       <c r="G39" s="18">
         <f>SUM(G33:G38)</f>
-        <v>500000</v>
+        <v>900000</v>
       </c>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
@@ -1759,12 +1667,12 @@
         <f>D13</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="E40" s="31" t="str">
+      <c r="E40" s="25" t="str">
         <f>E13</f>
-        <v>Five Lac Taka Only.</v>
-      </c>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
+        <v xml:space="preserve"> Nine Lac Taka Only.</v>
+      </c>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
@@ -1786,71 +1694,90 @@
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
-      <c r="H42" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
+      <c r="H42" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
     </row>
     <row r="43" spans="1:10" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="22"/>
+      <c r="D43" s="29"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="10"/>
-      <c r="D44" s="22"/>
+      <c r="D44" s="29"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="10"/>
-      <c r="D45" s="22"/>
+      <c r="D45" s="29"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="8"/>
       <c r="D46" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
+      <c r="H46" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J18"/>
+    <mergeCell ref="D16:D18"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E33:F33"/>
@@ -1867,25 +1794,6 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="A29:J29"/>
     <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E40:G40"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Symphony/2021/Others/Cash A.xlsx
+++ b/Symphony/2021/Others/Cash A.xlsx
@@ -66,16 +66,16 @@
     <t>Amount In Words :</t>
   </si>
   <si>
-    <t>Date: 10.07.2021</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
     <t>Jafor Iqbal</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nine Lac Taka Only.</t>
+    <t>Date: 15.07.2021</t>
+  </si>
+  <si>
+    <t>Sixteen Lac Taka Only.</t>
   </si>
 </sst>
 </file>
@@ -311,41 +311,41 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1035,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N9:N10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,60 +1055,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
+      <c r="A4" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
@@ -1117,10 +1117,10 @@
       <c r="D5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="21"/>
+      <c r="E5" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="31"/>
       <c r="G5" s="11" t="s">
         <v>1</v>
       </c>
@@ -1135,13 +1135,13 @@
       <c r="D6" s="12">
         <v>1000</v>
       </c>
-      <c r="E6" s="20">
-        <v>448</v>
-      </c>
-      <c r="F6" s="20"/>
+      <c r="E6" s="22">
+        <v>630</v>
+      </c>
+      <c r="F6" s="22"/>
       <c r="G6" s="12">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
-        <v>448000</v>
+        <v>630000</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -1154,13 +1154,13 @@
       <c r="D7" s="12">
         <v>500</v>
       </c>
-      <c r="E7" s="20">
-        <v>776</v>
-      </c>
-      <c r="F7" s="20"/>
+      <c r="E7" s="22">
+        <v>1800</v>
+      </c>
+      <c r="F7" s="22"/>
       <c r="G7" s="12">
         <f t="shared" si="0"/>
-        <v>388000</v>
+        <v>900000</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -1173,13 +1173,13 @@
       <c r="D8" s="12">
         <v>100</v>
       </c>
-      <c r="E8" s="20">
-        <v>534</v>
-      </c>
-      <c r="F8" s="20"/>
+      <c r="E8" s="22">
+        <v>700</v>
+      </c>
+      <c r="F8" s="22"/>
       <c r="G8" s="12">
         <f t="shared" si="0"/>
-        <v>53400</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -1192,13 +1192,11 @@
       <c r="D9" s="12">
         <v>50</v>
       </c>
-      <c r="E9" s="20">
-        <v>121</v>
-      </c>
-      <c r="F9" s="20"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="12">
         <f t="shared" si="0"/>
-        <v>6050</v>
+        <v>0</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -1211,13 +1209,11 @@
       <c r="D10" s="12">
         <v>20</v>
       </c>
-      <c r="E10" s="20">
-        <v>145</v>
-      </c>
-      <c r="F10" s="20"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="12">
         <f t="shared" si="0"/>
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -1232,13 +1228,11 @@
       <c r="D11" s="12">
         <v>10</v>
       </c>
-      <c r="E11" s="20">
-        <v>165</v>
-      </c>
-      <c r="F11" s="20"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="12">
         <f t="shared" si="0"/>
-        <v>1650</v>
+        <v>0</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -1248,14 +1242,14 @@
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="30"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16">
         <f>SUM(G6:G11)</f>
-        <v>900000</v>
+        <v>1600000</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -1268,11 +1262,11 @@
       <c r="D13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -1299,47 +1293,47 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="29"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="3"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="29"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="29"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -1351,11 +1345,11 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
+      <c r="H19" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
@@ -1365,9 +1359,9 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
@@ -1454,61 +1448,61 @@
       <c r="J27" s="10"/>
     </row>
     <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
     </row>
     <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="str">
+      <c r="A31" s="27" t="str">
         <f>A4</f>
-        <v>Date: 10.07.2021</v>
-      </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
+        <v>Date: 15.07.2021</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
     </row>
     <row r="32" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
@@ -1517,10 +1511,10 @@
       <c r="D32" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E32" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="21"/>
+      <c r="E32" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="31"/>
       <c r="G32" s="11" t="s">
         <v>1</v>
       </c>
@@ -1535,13 +1529,13 @@
       <c r="D33" s="5">
         <v>1000</v>
       </c>
-      <c r="E33" s="20">
-        <v>448</v>
-      </c>
-      <c r="F33" s="20"/>
+      <c r="E33" s="22">
+        <v>630</v>
+      </c>
+      <c r="F33" s="22"/>
       <c r="G33" s="5">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
-        <v>448000</v>
+        <v>630000</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
@@ -1554,13 +1548,13 @@
       <c r="D34" s="5">
         <v>500</v>
       </c>
-      <c r="E34" s="20">
-        <v>776</v>
-      </c>
-      <c r="F34" s="20"/>
+      <c r="E34" s="22">
+        <v>1800</v>
+      </c>
+      <c r="F34" s="22"/>
       <c r="G34" s="5">
         <f t="shared" si="1"/>
-        <v>388000</v>
+        <v>900000</v>
       </c>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
@@ -1573,13 +1567,13 @@
       <c r="D35" s="5">
         <v>100</v>
       </c>
-      <c r="E35" s="20">
-        <v>534</v>
-      </c>
-      <c r="F35" s="20"/>
+      <c r="E35" s="22">
+        <v>700</v>
+      </c>
+      <c r="F35" s="22"/>
       <c r="G35" s="5">
         <f t="shared" si="1"/>
-        <v>53400</v>
+        <v>70000</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
@@ -1592,13 +1586,11 @@
       <c r="D36" s="5">
         <v>50</v>
       </c>
-      <c r="E36" s="20">
-        <v>121</v>
-      </c>
-      <c r="F36" s="20"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
       <c r="G36" s="5">
         <f t="shared" si="1"/>
-        <v>6050</v>
+        <v>0</v>
       </c>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
@@ -1611,13 +1603,11 @@
       <c r="D37" s="5">
         <v>20</v>
       </c>
-      <c r="E37" s="20">
-        <v>145</v>
-      </c>
-      <c r="F37" s="20"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
       <c r="G37" s="5">
         <f>SUM(D37*E37)</f>
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
@@ -1630,13 +1620,11 @@
       <c r="D38" s="5">
         <v>10</v>
       </c>
-      <c r="E38" s="20">
-        <v>165</v>
-      </c>
-      <c r="F38" s="20"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
       <c r="G38" s="5">
         <f t="shared" si="1"/>
-        <v>1650</v>
+        <v>0</v>
       </c>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
@@ -1646,14 +1634,14 @@
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="32"/>
+      <c r="E39" s="24"/>
       <c r="F39" s="17"/>
       <c r="G39" s="18">
         <f>SUM(G33:G38)</f>
-        <v>900000</v>
+        <v>1600000</v>
       </c>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
@@ -1667,12 +1655,12 @@
         <f>D13</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="E40" s="25" t="str">
+      <c r="E40" s="26" t="str">
         <f>E13</f>
-        <v xml:space="preserve"> Nine Lac Taka Only.</v>
-      </c>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
+        <v>Sixteen Lac Taka Only.</v>
+      </c>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
@@ -1699,47 +1687,47 @@
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
-      <c r="H42" s="29" t="s">
+      <c r="H42" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
     </row>
     <row r="43" spans="1:10" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="29"/>
+      <c r="D43" s="25"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="10"/>
-      <c r="D44" s="29"/>
+      <c r="D44" s="25"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="10"/>
-      <c r="D45" s="29"/>
+      <c r="D45" s="25"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
@@ -1751,14 +1739,33 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
+      <c r="H46" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="E35:F35"/>
@@ -1775,25 +1782,6 @@
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="A28:J28"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Symphony/2021/Others/Cash A.xlsx
+++ b/Symphony/2021/Others/Cash A.xlsx
@@ -72,10 +72,10 @@
     <t>Jafor Iqbal</t>
   </si>
   <si>
-    <t>Date: 15.07.2021</t>
+    <t>Date: 16.07.2021</t>
   </si>
   <si>
-    <t>Sixteen Lac Taka Only.</t>
+    <t>Twenty Lac Taka Only.</t>
   </si>
 </sst>
 </file>
@@ -311,15 +311,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -335,19 +338,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,14 +369,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -393,8 +393,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1504950" y="5343525"/>
-          <a:ext cx="1343025" cy="9525"/>
+          <a:off x="971550" y="5143500"/>
+          <a:ext cx="1209675" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -419,16 +419,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2286000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -443,8 +443,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6915150" y="5133975"/>
-          <a:ext cx="1447800" cy="9525"/>
+          <a:off x="6391275" y="5153025"/>
+          <a:ext cx="1409700" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -469,16 +469,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1562100</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>11113</xdr:rowOff>
+      <xdr:rowOff>1588</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -493,7 +493,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1571625" y="12306300"/>
+          <a:off x="990600" y="11896725"/>
           <a:ext cx="1228725" cy="1588"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -519,16 +519,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2295525</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -543,108 +543,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6924675" y="11887200"/>
-          <a:ext cx="1438275" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1609725</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Connector 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F693EA6-49EB-42D1-B3CA-F15B26A03B41}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1504950" y="5343525"/>
-          <a:ext cx="1343025" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1562100</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>11113</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Straight Connector 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{334CB43E-1331-4297-A64C-0895C28A3BBB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1571625" y="12306300"/>
-          <a:ext cx="1228725" cy="1588"/>
+          <a:off x="6400800" y="11896725"/>
+          <a:ext cx="1381125" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -669,13 +569,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1285875</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1285875</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>357093</xdr:rowOff>
@@ -719,13 +619,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1228725</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1228725</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>395445</xdr:rowOff>
@@ -1033,245 +933,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="29" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="34.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="29" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-    </row>
-    <row r="5" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11" t="s">
+      <c r="B5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="C5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="11" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="11" t="s">
         <v>1</v>
       </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="12">
+      <c r="B6" s="12">
         <v>1000</v>
       </c>
-      <c r="E6" s="22">
-        <v>630</v>
-      </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="12">
-        <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
-        <v>630000</v>
-      </c>
+      <c r="C6" s="20">
+        <v>990</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="12">
+        <f t="shared" ref="E6:E11" si="0">SUM(B6*C6)</f>
+        <v>990000</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="12">
+      <c r="B7" s="12">
         <v>500</v>
       </c>
-      <c r="E7" s="22">
-        <v>1800</v>
-      </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="12">
+      <c r="C7" s="20">
+        <v>1700</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="12">
         <f t="shared" si="0"/>
-        <v>900000</v>
-      </c>
+        <v>850000</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="12">
+      <c r="B8" s="12">
         <v>100</v>
       </c>
-      <c r="E8" s="22">
-        <v>700</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="12">
+      <c r="C8" s="20">
+        <v>1400</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="12">
         <f t="shared" si="0"/>
-        <v>70000</v>
-      </c>
+        <v>140000</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="12">
+      <c r="B9" s="12">
         <v>50</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="12">
+      <c r="C9" s="20">
+        <v>300</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>15000</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="12">
+      <c r="B10" s="12">
         <v>20</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="12">
+      <c r="C10" s="20">
+        <v>100</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="13" t="s">
+        <v>2000</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="12">
+      <c r="B11" s="12">
         <v>10</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="12">
+      <c r="C11" s="20">
+        <v>300</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>3000</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="20" t="s">
+      <c r="B12" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16">
-        <f>SUM(G6:G11)</f>
-        <v>1600000</v>
-      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16">
+        <f>SUM(E6:E11)</f>
+        <v>2000000</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="14" t="s">
+      <c r="B13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="C13" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -1280,90 +1158,76 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+      <c r="B15" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="19" t="s">
-        <v>4</v>
-      </c>
+      <c r="D15" s="10"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="25" t="s">
+      <c r="F15" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="26"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="25"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="25"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-    </row>
-    <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="B19" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="21" t="s">
+      <c r="F19" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -1372,10 +1236,8 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -1384,10 +1246,8 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -1396,10 +1256,8 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -1408,10 +1266,8 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-    </row>
-    <row r="25" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1420,10 +1276,8 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1432,10 +1286,8 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1444,228 +1296,206 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-    </row>
-    <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+    </row>
+    <row r="28" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-    </row>
-    <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+    </row>
+    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-    </row>
-    <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+    </row>
+    <row r="30" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-    </row>
-    <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="str">
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+    </row>
+    <row r="31" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="str">
         <f>A4</f>
-        <v>Date: 15.07.2021</v>
-      </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-    </row>
-    <row r="32" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Date: 16.07.2021</v>
+      </c>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+    </row>
+    <row r="32" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11" t="s">
+      <c r="B32" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="C32" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="31"/>
-      <c r="G32" s="11" t="s">
+      <c r="D32" s="21"/>
+      <c r="E32" s="11" t="s">
         <v>1</v>
       </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
       <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-    </row>
-    <row r="33" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="5">
+      <c r="B33" s="5">
         <v>1000</v>
       </c>
-      <c r="E33" s="22">
-        <v>630</v>
-      </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="5">
-        <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
-        <v>630000</v>
-      </c>
+      <c r="C33" s="20">
+        <v>990</v>
+      </c>
+      <c r="D33" s="20"/>
+      <c r="E33" s="5">
+        <f t="shared" ref="E33:E38" si="1">SUM(B33*C33)</f>
+        <v>990000</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
       <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-    </row>
-    <row r="34" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="5">
+      <c r="B34" s="5">
         <v>500</v>
       </c>
-      <c r="E34" s="22">
-        <v>1800</v>
-      </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="5">
+      <c r="C34" s="20">
+        <v>1700</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="5">
         <f t="shared" si="1"/>
-        <v>900000</v>
-      </c>
+        <v>850000</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
       <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-    </row>
-    <row r="35" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="5">
+      <c r="B35" s="5">
         <v>100</v>
       </c>
-      <c r="E35" s="22">
-        <v>700</v>
-      </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="5">
+      <c r="C35" s="20">
+        <v>1400</v>
+      </c>
+      <c r="D35" s="20"/>
+      <c r="E35" s="5">
         <f t="shared" si="1"/>
-        <v>70000</v>
-      </c>
+        <v>140000</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
       <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-    </row>
-    <row r="36" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="5">
+      <c r="B36" s="5">
         <v>50</v>
       </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="5">
+      <c r="C36" s="20">
+        <v>300</v>
+      </c>
+      <c r="D36" s="20"/>
+      <c r="E36" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>15000</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
       <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-    </row>
-    <row r="37" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="5">
+      <c r="B37" s="5">
         <v>20</v>
       </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="5">
-        <f>SUM(D37*E37)</f>
-        <v>0</v>
-      </c>
+      <c r="C37" s="20">
+        <v>100</v>
+      </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="5">
+        <f>SUM(B37*C37)</f>
+        <v>2000</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
       <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-    </row>
-    <row r="38" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="5">
+      <c r="B38" s="5">
         <v>10</v>
       </c>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="5">
+      <c r="C38" s="20">
+        <v>300</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>3000</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
       <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-    </row>
-    <row r="39" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="23" t="s">
+      <c r="B39" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="18">
-        <f>SUM(G33:G38)</f>
-        <v>1600000</v>
-      </c>
+      <c r="C39" s="25"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="18">
+        <f>SUM(E33:E38)</f>
+        <v>2000000</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
       <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-    </row>
-    <row r="40" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="14" t="str">
-        <f>D13</f>
+      <c r="B40" s="14" t="str">
+        <f>B13</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="E40" s="26" t="str">
-        <f>E13</f>
-        <v>Sixteen Lac Taka Only.</v>
-      </c>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
+      <c r="C40" s="27" t="str">
+        <f>C13</f>
+        <v>Twenty Lac Taka Only.</v>
+      </c>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
       <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -1674,114 +1504,102 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
+      <c r="B42" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="C42" s="10"/>
-      <c r="D42" s="19" t="s">
-        <v>4</v>
-      </c>
+      <c r="D42" s="10"/>
       <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="25" t="s">
+      <c r="F42" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-    </row>
-    <row r="43" spans="1:10" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+    </row>
+    <row r="43" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="25"/>
+      <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="10"/>
-      <c r="D44" s="25"/>
+      <c r="D44" s="10"/>
       <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="10"/>
-      <c r="D45" s="25"/>
+      <c r="D45" s="10"/>
       <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
+      <c r="B46" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C46" s="8"/>
-      <c r="D46" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D46" s="8"/>
       <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="21" t="s">
+      <c r="F46" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F43:H45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Symphony/2021/Others/Cash A.xlsx
+++ b/Symphony/2021/Others/Cash A.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Currency Value</t>
   </si>
@@ -48,15 +48,6 @@
     <t xml:space="preserve">     Grand Total =</t>
   </si>
   <si>
-    <t>Mugdho Corporaton</t>
-  </si>
-  <si>
-    <t>Mugdho Corporation</t>
-  </si>
-  <si>
-    <t>Komola Super Market, Alaipur, Natore.</t>
-  </si>
-  <si>
     <t>Rahinul Kabir</t>
   </si>
   <si>
@@ -69,13 +60,19 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Jafor Iqbal</t>
+    <t>Date: 20.07.2021</t>
   </si>
   <si>
-    <t>Date: 16.07.2021</t>
+    <t>Five Lac Taka Only.</t>
   </si>
   <si>
-    <t>Twenty Lac Taka Only.</t>
+    <t>Raju Ahmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mugdho Corporation </t>
+  </si>
+  <si>
+    <t>Komola Super Market, Alaipur, Natore</t>
   </si>
 </sst>
 </file>
@@ -369,13 +366,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -419,14 +416,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -443,7 +440,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6391275" y="5153025"/>
+          <a:off x="6819900" y="5153025"/>
           <a:ext cx="1409700" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -469,13 +466,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1562100</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>1588</xdr:rowOff>
@@ -519,13 +516,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -569,13 +566,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1285875</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1285875</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>357093</xdr:rowOff>
@@ -619,13 +616,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1228725</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1228725</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>395445</xdr:rowOff>
@@ -933,224 +930,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H46"/>
+  <dimension ref="B1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="29"/>
+    <row r="1" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>14</v>
+      </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
-    </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="30"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
       <c r="F2" s="30"/>
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
-    </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="I2" s="30"/>
+    </row>
+    <row r="3" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="28"/>
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="28" t="s">
+        <v>11</v>
+      </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" spans="2:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="12">
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="2:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="12">
         <v>1000</v>
       </c>
-      <c r="C6" s="20">
-        <v>990</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="12">
-        <f t="shared" ref="E6:E11" si="0">SUM(B6*C6)</f>
-        <v>990000</v>
-      </c>
-      <c r="F6" s="10"/>
+      <c r="D6" s="20">
+        <v>2000</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="12">
+        <f t="shared" ref="F6:F11" si="0">SUM(C6*D6)</f>
+        <v>2000000</v>
+      </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="12">
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="2:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="C7" s="12">
         <v>500</v>
       </c>
-      <c r="C7" s="20">
-        <v>1700</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="12">
+      <c r="D7" s="20">
+        <v>3600</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="12">
         <f t="shared" si="0"/>
-        <v>850000</v>
-      </c>
-      <c r="F7" s="10"/>
+        <v>1800000</v>
+      </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="12">
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="2:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="C8" s="12">
         <v>100</v>
       </c>
-      <c r="C8" s="20">
-        <v>1400</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="12">
+      <c r="D8" s="20">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="12">
         <f t="shared" si="0"/>
-        <v>140000</v>
-      </c>
-      <c r="F8" s="10"/>
+        <v>200000</v>
+      </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="12">
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="2:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="10"/>
+      <c r="C9" s="12">
         <v>50</v>
       </c>
-      <c r="C9" s="20">
-        <v>300</v>
-      </c>
       <c r="D9" s="20"/>
-      <c r="E9" s="12">
+      <c r="E9" s="20"/>
+      <c r="F9" s="12">
         <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="F9" s="10"/>
+        <v>0</v>
+      </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="12">
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="2:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+      <c r="C10" s="12">
         <v>20</v>
       </c>
-      <c r="C10" s="20">
-        <v>100</v>
-      </c>
       <c r="D10" s="20"/>
-      <c r="E10" s="12">
+      <c r="E10" s="20"/>
+      <c r="F10" s="12">
         <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="F10" s="10"/>
+        <v>0</v>
+      </c>
       <c r="G10" s="10"/>
-      <c r="H10" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="12">
+      <c r="H10" s="10"/>
+      <c r="I10" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
+      <c r="C11" s="12">
         <v>10</v>
       </c>
-      <c r="C11" s="20">
-        <v>300</v>
-      </c>
       <c r="D11" s="20"/>
-      <c r="E11" s="12">
+      <c r="E11" s="20"/>
+      <c r="F11" s="12">
         <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-      <c r="F11" s="10"/>
+        <v>0</v>
+      </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="22" t="s">
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+      <c r="C12" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16">
-        <f>SUM(E6:E11)</f>
-        <v>2000000</v>
-      </c>
-      <c r="F12" s="10"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16">
+        <f>SUM(F6:F11)</f>
+        <v>4000000</v>
+      </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="14" t="s">
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="10"/>
+      <c r="C13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="27"/>
       <c r="E13" s="27"/>
-      <c r="F13" s="10"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -1158,77 +1149,77 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="19" t="s">
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="10"/>
+      <c r="C15" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="10"/>
+      <c r="G15" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="26"/>
       <c r="H15" s="26"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="9"/>
+      <c r="I15" s="26"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="26"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="9"/>
+      <c r="I16" s="26"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="26"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="9"/>
+      <c r="I17" s="26"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="26"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
-    </row>
-    <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="9"/>
+      <c r="I18" s="26"/>
+    </row>
+    <row r="19" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="23"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" s="23"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="32"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="32"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
+      <c r="I20" s="32"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1236,9 +1227,9 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1246,9 +1237,9 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -1256,9 +1247,9 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -1266,9 +1257,9 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -1276,9 +1267,9 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -1286,9 +1277,9 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -1296,207 +1287,203 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="29"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="29" t="str">
+        <f>B1</f>
+        <v xml:space="preserve">Mugdho Corporation </v>
+      </c>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
-    </row>
-    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="30"/>
+      <c r="I28" s="29"/>
+    </row>
+    <row r="29" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B29" s="30" t="str">
+        <f>B2</f>
+        <v>Komola Super Market, Alaipur, Natore</v>
+      </c>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
       <c r="H29" s="30"/>
-    </row>
-    <row r="30" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
+      <c r="I29" s="30"/>
+    </row>
+    <row r="30" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="28"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
-    </row>
-    <row r="31" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="str">
-        <f>A4</f>
-        <v>Date: 16.07.2021</v>
-      </c>
-      <c r="B31" s="28"/>
+      <c r="I30" s="28"/>
+    </row>
+    <row r="31" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="28" t="str">
+        <f>B4</f>
+        <v>Date: 20.07.2021</v>
+      </c>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
-    </row>
-    <row r="32" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11" t="s">
+      <c r="I31" s="28"/>
+    </row>
+    <row r="32" spans="2:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="10"/>
+      <c r="C32" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="11" t="s">
+      <c r="D32" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="5">
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B33" s="10"/>
+      <c r="C33" s="5">
         <v>1000</v>
       </c>
-      <c r="C33" s="20">
-        <v>990</v>
-      </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="5">
-        <f t="shared" ref="E33:E38" si="1">SUM(B33*C33)</f>
-        <v>990000</v>
-      </c>
-      <c r="F33" s="10"/>
+      <c r="D33" s="20">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="5">
+        <f t="shared" ref="F33:F38" si="1">SUM(C33*D33)</f>
+        <v>2000000</v>
+      </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="5">
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B34" s="10"/>
+      <c r="C34" s="5">
         <v>500</v>
       </c>
-      <c r="C34" s="20">
-        <v>1700</v>
-      </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="5">
+      <c r="D34" s="20">
+        <v>3600</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="5">
         <f t="shared" si="1"/>
-        <v>850000</v>
-      </c>
-      <c r="F34" s="10"/>
+        <v>1800000</v>
+      </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="5">
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B35" s="10"/>
+      <c r="C35" s="5">
         <v>100</v>
       </c>
-      <c r="C35" s="20">
-        <v>1400</v>
-      </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="5">
+      <c r="D35" s="20">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="5">
         <f t="shared" si="1"/>
-        <v>140000</v>
-      </c>
-      <c r="F35" s="10"/>
+        <v>200000</v>
+      </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="5">
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B36" s="10"/>
+      <c r="C36" s="5">
         <v>50</v>
       </c>
-      <c r="C36" s="20">
-        <v>300</v>
-      </c>
       <c r="D36" s="20"/>
-      <c r="E36" s="5">
+      <c r="E36" s="20"/>
+      <c r="F36" s="5">
         <f t="shared" si="1"/>
-        <v>15000</v>
-      </c>
-      <c r="F36" s="10"/>
+        <v>0</v>
+      </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="5">
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B37" s="10"/>
+      <c r="C37" s="5">
         <v>20</v>
       </c>
-      <c r="C37" s="20">
-        <v>100</v>
-      </c>
       <c r="D37" s="20"/>
-      <c r="E37" s="5">
-        <f>SUM(B37*C37)</f>
-        <v>2000</v>
-      </c>
-      <c r="F37" s="10"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="5">
+        <f>SUM(C37*D37)</f>
+        <v>0</v>
+      </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
-    </row>
-    <row r="38" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="5">
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B38" s="10"/>
+      <c r="C38" s="5">
         <v>10</v>
       </c>
-      <c r="C38" s="20">
-        <v>300</v>
-      </c>
       <c r="D38" s="20"/>
-      <c r="E38" s="5">
+      <c r="E38" s="20"/>
+      <c r="F38" s="5">
         <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="F38" s="10"/>
+        <v>0</v>
+      </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
-    </row>
-    <row r="39" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="24" t="s">
+      <c r="I38" s="10"/>
+    </row>
+    <row r="39" spans="2:9" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B39" s="10"/>
+      <c r="C39" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="18">
-        <f>SUM(E33:E38)</f>
-        <v>2000000</v>
-      </c>
-      <c r="F39" s="10"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="18">
+        <f>SUM(F33:F38)</f>
+        <v>4000000</v>
+      </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="14" t="str">
-        <f>B13</f>
+      <c r="I39" s="10"/>
+    </row>
+    <row r="40" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="10"/>
+      <c r="C40" s="14" t="str">
+        <f>C13</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="C40" s="27" t="str">
-        <f>C13</f>
-        <v>Twenty Lac Taka Only.</v>
-      </c>
-      <c r="D40" s="27"/>
+      <c r="D40" s="27" t="str">
+        <f>D13</f>
+        <v>Five Lac Taka Only.</v>
+      </c>
       <c r="E40" s="27"/>
-      <c r="F40" s="10"/>
+      <c r="F40" s="27"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
+      <c r="I40" s="10"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
@@ -1504,102 +1491,103 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="19" t="s">
+      <c r="I41" s="10"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="10"/>
+      <c r="C42" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
-      <c r="F42" s="26" t="s">
+      <c r="F42" s="10"/>
+      <c r="G42" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="26"/>
       <c r="H42" s="26"/>
-    </row>
-    <row r="43" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="9"/>
+      <c r="I42" s="26"/>
+    </row>
+    <row r="43" spans="2:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="3"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="26"/>
+      <c r="F43" s="9"/>
       <c r="G43" s="26"/>
       <c r="H43" s="26"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="10"/>
+      <c r="I43" s="26"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="6"/>
+      <c r="C44" s="26"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
-      <c r="F44" s="26"/>
+      <c r="F44" s="10"/>
       <c r="G44" s="26"/>
       <c r="H44" s="26"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="10"/>
+      <c r="I44" s="26"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+      <c r="C45" s="26"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
-      <c r="F45" s="26"/>
+      <c r="F45" s="10"/>
       <c r="G45" s="26"/>
       <c r="H45" s="26"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="8"/>
+      <c r="I45" s="26"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="7"/>
+      <c r="C46" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
-      <c r="F46" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="23"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F43:H45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="D13:F13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Symphony/2021/Others/Cash A.xlsx
+++ b/Symphony/2021/Others/Cash A.xlsx
@@ -311,40 +311,40 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -933,7 +933,7 @@
   <dimension ref="B1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="N8" sqref="M7:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,62 +951,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
     </row>
     <row r="5" spans="2:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="11" t="s">
         <v>1</v>
       </c>
@@ -1020,12 +1020,12 @@
         <v>1000</v>
       </c>
       <c r="D6" s="20">
-        <v>2000</v>
+        <v>985</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="12">
         <f t="shared" ref="F6:F11" si="0">SUM(C6*D6)</f>
-        <v>2000000</v>
+        <v>985000</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -1037,12 +1037,12 @@
         <v>500</v>
       </c>
       <c r="D7" s="20">
-        <v>3600</v>
+        <v>335</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="12">
         <f t="shared" si="0"/>
-        <v>1800000</v>
+        <v>167500</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -1054,12 +1054,12 @@
         <v>100</v>
       </c>
       <c r="D8" s="20">
-        <v>2000</v>
+        <v>1737</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="12">
         <f t="shared" si="0"/>
-        <v>200000</v>
+        <v>173700</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -1070,11 +1070,13 @@
       <c r="C9" s="12">
         <v>50</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="20">
+        <v>276</v>
+      </c>
       <c r="E9" s="20"/>
       <c r="F9" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13800</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -1085,11 +1087,13 @@
       <c r="C10" s="12">
         <v>20</v>
       </c>
-      <c r="D10" s="20"/>
+      <c r="D10" s="20">
+        <v>400</v>
+      </c>
       <c r="E10" s="20"/>
       <c r="F10" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -1102,11 +1106,13 @@
       <c r="C11" s="12">
         <v>10</v>
       </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="20">
+        <v>200</v>
+      </c>
       <c r="E11" s="20"/>
       <c r="F11" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -1114,14 +1120,14 @@
     </row>
     <row r="12" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="22"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="15"/>
       <c r="F12" s="16">
         <f>SUM(F6:F11)</f>
-        <v>4000000</v>
+        <v>1350000</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -1132,11 +1138,11 @@
       <c r="C13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -1159,41 +1165,41 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
-      <c r="C16" s="26"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="3"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
-      <c r="C17" s="26"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
-      <c r="C18" s="26"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
     </row>
     <row r="19" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
@@ -1203,11 +1209,11 @@
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
@@ -1215,9 +1221,9 @@
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
@@ -1290,65 +1296,65 @@
       <c r="I27" s="10"/>
     </row>
     <row r="28" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="29" t="str">
+      <c r="B28" s="27" t="str">
         <f>B1</f>
         <v xml:space="preserve">Mugdho Corporation </v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
     </row>
     <row r="29" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B29" s="30" t="str">
+      <c r="B29" s="21" t="str">
         <f>B2</f>
         <v>Komola Super Market, Alaipur, Natore</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
     </row>
     <row r="30" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
     </row>
     <row r="31" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="28" t="str">
+      <c r="B31" s="22" t="str">
         <f>B4</f>
         <v>Date: 20.07.2021</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
     </row>
     <row r="32" spans="2:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
       <c r="C32" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="21"/>
+      <c r="E32" s="28"/>
       <c r="F32" s="11" t="s">
         <v>1</v>
       </c>
@@ -1454,10 +1460,10 @@
     </row>
     <row r="39" spans="2:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B39" s="10"/>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="25"/>
+      <c r="D39" s="31"/>
       <c r="E39" s="17"/>
       <c r="F39" s="18">
         <f>SUM(F33:F38)</f>
@@ -1473,12 +1479,12 @@
         <f>C13</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="D40" s="27" t="str">
+      <c r="D40" s="32" t="str">
         <f>D13</f>
         <v>Five Lac Taka Only.</v>
       </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
@@ -1501,41 +1507,41 @@
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
-      <c r="G42" s="26" t="s">
+      <c r="G42" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
     </row>
     <row r="43" spans="2:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
-      <c r="C43" s="26"/>
+      <c r="C43" s="23"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
-      <c r="C44" s="26"/>
+      <c r="C44" s="23"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
-      <c r="C45" s="26"/>
+      <c r="C45" s="23"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
@@ -1545,33 +1551,14 @@
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
-      <c r="G46" s="23" t="s">
+      <c r="G46" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="D5:E5"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D33:E33"/>
@@ -1588,6 +1575,25 @@
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="B31:I31"/>
     <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B28:I28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Symphony/2021/Others/Cash A.xlsx
+++ b/Symphony/2021/Others/Cash A.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Currency Value</t>
   </si>
@@ -60,19 +60,19 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Date: 20.07.2021</t>
-  </si>
-  <si>
-    <t>Five Lac Taka Only.</t>
-  </si>
-  <si>
-    <t>Raju Ahmed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
   <si>
     <t>Komola Super Market, Alaipur, Natore</t>
+  </si>
+  <si>
+    <t>Date: 29.07.2021</t>
+  </si>
+  <si>
+    <t>Four Lac Taka Only.</t>
+  </si>
+  <si>
+    <t>Jafor Iqbal</t>
   </si>
 </sst>
 </file>
@@ -311,40 +311,40 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -933,7 +933,7 @@
   <dimension ref="B1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="M7:N8"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,62 +951,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B1" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="B1" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="B2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="B4" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="2:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="11" t="s">
         <v>1</v>
       </c>
@@ -1020,12 +1020,12 @@
         <v>1000</v>
       </c>
       <c r="D6" s="20">
-        <v>985</v>
+        <v>129</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="12">
         <f t="shared" ref="F6:F11" si="0">SUM(C6*D6)</f>
-        <v>985000</v>
+        <v>129000</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -1037,12 +1037,12 @@
         <v>500</v>
       </c>
       <c r="D7" s="20">
-        <v>335</v>
+        <v>420</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="12">
         <f t="shared" si="0"/>
-        <v>167500</v>
+        <v>210000</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -1054,12 +1054,12 @@
         <v>100</v>
       </c>
       <c r="D8" s="20">
-        <v>1737</v>
+        <v>605</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="12">
         <f t="shared" si="0"/>
-        <v>173700</v>
+        <v>60500</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -1071,12 +1071,12 @@
         <v>50</v>
       </c>
       <c r="D9" s="20">
-        <v>276</v>
+        <v>10</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="12">
         <f t="shared" si="0"/>
-        <v>13800</v>
+        <v>500</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -1087,13 +1087,11 @@
       <c r="C10" s="12">
         <v>20</v>
       </c>
-      <c r="D10" s="20">
-        <v>400</v>
-      </c>
+      <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="12">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -1106,13 +1104,11 @@
       <c r="C11" s="12">
         <v>10</v>
       </c>
-      <c r="D11" s="20">
-        <v>200</v>
-      </c>
+      <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="12">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -1120,14 +1116,14 @@
     </row>
     <row r="12" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="29"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="15"/>
       <c r="F12" s="16">
         <f>SUM(F6:F11)</f>
-        <v>1350000</v>
+        <v>400000</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -1138,11 +1134,11 @@
       <c r="C13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
+      <c r="D13" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -1165,41 +1161,41 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
-      <c r="C16" s="23"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="3"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
-      <c r="C17" s="23"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
-      <c r="C18" s="23"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
     </row>
     <row r="19" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
@@ -1209,11 +1205,11 @@
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
+      <c r="G19" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
@@ -1221,9 +1217,9 @@
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
@@ -1296,65 +1292,65 @@
       <c r="I27" s="10"/>
     </row>
     <row r="28" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="27" t="str">
+      <c r="B28" s="29" t="str">
         <f>B1</f>
         <v xml:space="preserve">Mugdho Corporation </v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
     </row>
     <row r="29" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B29" s="21" t="str">
+      <c r="B29" s="30" t="str">
         <f>B2</f>
         <v>Komola Super Market, Alaipur, Natore</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
     </row>
     <row r="30" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
     </row>
     <row r="31" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="22" t="str">
+      <c r="B31" s="28" t="str">
         <f>B4</f>
-        <v>Date: 20.07.2021</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
+        <v>Date: 29.07.2021</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
     </row>
     <row r="32" spans="2:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
       <c r="C32" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="28"/>
+      <c r="E32" s="21"/>
       <c r="F32" s="11" t="s">
         <v>1</v>
       </c>
@@ -1368,12 +1364,12 @@
         <v>1000</v>
       </c>
       <c r="D33" s="20">
-        <v>2000</v>
+        <v>129</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="5">
         <f t="shared" ref="F33:F38" si="1">SUM(C33*D33)</f>
-        <v>2000000</v>
+        <v>129000</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
@@ -1385,12 +1381,12 @@
         <v>500</v>
       </c>
       <c r="D34" s="20">
-        <v>3600</v>
+        <v>420</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="5">
         <f t="shared" si="1"/>
-        <v>1800000</v>
+        <v>210000</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
@@ -1402,12 +1398,12 @@
         <v>100</v>
       </c>
       <c r="D35" s="20">
-        <v>2000</v>
+        <v>605</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="5">
         <f t="shared" si="1"/>
-        <v>200000</v>
+        <v>60500</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -1418,11 +1414,13 @@
       <c r="C36" s="5">
         <v>50</v>
       </c>
-      <c r="D36" s="20"/>
+      <c r="D36" s="20">
+        <v>10</v>
+      </c>
       <c r="E36" s="20"/>
       <c r="F36" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -1460,14 +1458,14 @@
     </row>
     <row r="39" spans="2:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B39" s="10"/>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="31"/>
+      <c r="D39" s="25"/>
       <c r="E39" s="17"/>
       <c r="F39" s="18">
         <f>SUM(F33:F38)</f>
-        <v>4000000</v>
+        <v>400000</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -1479,12 +1477,12 @@
         <f>C13</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="D40" s="32" t="str">
+      <c r="D40" s="27" t="str">
         <f>D13</f>
-        <v>Five Lac Taka Only.</v>
-      </c>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
+        <v>Four Lac Taka Only.</v>
+      </c>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
@@ -1507,41 +1505,41 @@
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
-      <c r="G42" s="23" t="s">
+      <c r="G42" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
     </row>
     <row r="43" spans="2:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
-      <c r="C43" s="23"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
-      <c r="C44" s="23"/>
+      <c r="C44" s="26"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
-      <c r="C45" s="23"/>
+      <c r="C45" s="26"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
@@ -1551,14 +1549,34 @@
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
-      <c r="G46" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
+      <c r="G46" s="23" t="str">
+        <f>G19</f>
+        <v>Jafor Iqbal</v>
+      </c>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D33:E33"/>
@@ -1575,25 +1593,6 @@
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="B31:I31"/>
     <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B28:I28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Symphony/2021/Others/Cash A.xlsx
+++ b/Symphony/2021/Others/Cash A.xlsx
@@ -66,13 +66,13 @@
     <t>Komola Super Market, Alaipur, Natore</t>
   </si>
   <si>
-    <t>Date: 29.07.2021</t>
+    <t>Tanjib</t>
   </si>
   <si>
     <t>Four Lac Taka Only.</t>
   </si>
   <si>
-    <t>Jafor Iqbal</t>
+    <t>Date: 08.08.2021</t>
   </si>
 </sst>
 </file>
@@ -933,7 +933,7 @@
   <dimension ref="B1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +988,7 @@
     </row>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -1020,12 +1020,12 @@
         <v>1000</v>
       </c>
       <c r="D6" s="20">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="12">
         <f t="shared" ref="F6:F11" si="0">SUM(C6*D6)</f>
-        <v>129000</v>
+        <v>105000</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -1037,12 +1037,12 @@
         <v>500</v>
       </c>
       <c r="D7" s="20">
-        <v>420</v>
+        <v>489</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="12">
         <f t="shared" si="0"/>
-        <v>210000</v>
+        <v>244500</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -1054,12 +1054,12 @@
         <v>100</v>
       </c>
       <c r="D8" s="20">
-        <v>605</v>
+        <v>454</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="12">
         <f t="shared" si="0"/>
-        <v>60500</v>
+        <v>45400</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -1071,12 +1071,12 @@
         <v>50</v>
       </c>
       <c r="D9" s="20">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="12">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>1950</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -1087,11 +1087,13 @@
       <c r="C10" s="12">
         <v>20</v>
       </c>
-      <c r="D10" s="20"/>
+      <c r="D10" s="20">
+        <v>30</v>
+      </c>
       <c r="E10" s="20"/>
       <c r="F10" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -1104,11 +1106,13 @@
       <c r="C11" s="12">
         <v>10</v>
       </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="20">
+        <v>255</v>
+      </c>
       <c r="E11" s="20"/>
       <c r="F11" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2550</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -1206,7 +1210,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
@@ -1332,7 +1336,7 @@
     <row r="31" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B31" s="28" t="str">
         <f>B4</f>
-        <v>Date: 29.07.2021</v>
+        <v>Date: 08.08.2021</v>
       </c>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
@@ -1364,12 +1368,12 @@
         <v>1000</v>
       </c>
       <c r="D33" s="20">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="5">
         <f t="shared" ref="F33:F38" si="1">SUM(C33*D33)</f>
-        <v>129000</v>
+        <v>105000</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
@@ -1381,12 +1385,12 @@
         <v>500</v>
       </c>
       <c r="D34" s="20">
-        <v>420</v>
+        <v>489</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="5">
         <f t="shared" si="1"/>
-        <v>210000</v>
+        <v>244500</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
@@ -1398,12 +1402,12 @@
         <v>100</v>
       </c>
       <c r="D35" s="20">
-        <v>605</v>
+        <v>454</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="5">
         <f t="shared" si="1"/>
-        <v>60500</v>
+        <v>45400</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -1415,12 +1419,12 @@
         <v>50</v>
       </c>
       <c r="D36" s="20">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="5">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>1950</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -1431,11 +1435,13 @@
       <c r="C37" s="5">
         <v>20</v>
       </c>
-      <c r="D37" s="20"/>
+      <c r="D37" s="20">
+        <v>30</v>
+      </c>
       <c r="E37" s="20"/>
       <c r="F37" s="5">
         <f>SUM(C37*D37)</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -1446,11 +1452,13 @@
       <c r="C38" s="5">
         <v>10</v>
       </c>
-      <c r="D38" s="20"/>
+      <c r="D38" s="20">
+        <v>255</v>
+      </c>
       <c r="E38" s="20"/>
       <c r="F38" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2550</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
@@ -1551,7 +1559,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="23" t="str">
         <f>G19</f>
-        <v>Jafor Iqbal</v>
+        <v>Tanjib</v>
       </c>
       <c r="H46" s="23"/>
       <c r="I46" s="23"/>

--- a/Symphony/2021/Others/Cash A.xlsx
+++ b/Symphony/2021/Others/Cash A.xlsx
@@ -66,13 +66,13 @@
     <t>Komola Super Market, Alaipur, Natore</t>
   </si>
   <si>
-    <t>Tanjib</t>
+    <t>Date: 12.08.2021</t>
   </si>
   <si>
-    <t>Four Lac Taka Only.</t>
+    <t>Seven Lac Taka Only.</t>
   </si>
   <si>
-    <t>Date: 08.08.2021</t>
+    <t>Jafor Iqbal</t>
   </si>
 </sst>
 </file>
@@ -311,40 +311,40 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,62 +951,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="B4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
     </row>
     <row r="5" spans="2:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="11" t="s">
         <v>1</v>
       </c>
@@ -1020,12 +1020,12 @@
         <v>1000</v>
       </c>
       <c r="D6" s="20">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="12">
         <f t="shared" ref="F6:F11" si="0">SUM(C6*D6)</f>
-        <v>105000</v>
+        <v>145000</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -1037,12 +1037,12 @@
         <v>500</v>
       </c>
       <c r="D7" s="20">
-        <v>489</v>
+        <v>1000</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="12">
         <f t="shared" si="0"/>
-        <v>244500</v>
+        <v>500000</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -1054,12 +1054,12 @@
         <v>100</v>
       </c>
       <c r="D8" s="20">
-        <v>454</v>
+        <v>500</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="12">
         <f t="shared" si="0"/>
-        <v>45400</v>
+        <v>50000</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -1071,12 +1071,12 @@
         <v>50</v>
       </c>
       <c r="D9" s="20">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="12">
         <f t="shared" si="0"/>
-        <v>1950</v>
+        <v>3000</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -1088,12 +1088,12 @@
         <v>20</v>
       </c>
       <c r="D10" s="20">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="12">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -1106,13 +1106,11 @@
       <c r="C11" s="12">
         <v>10</v>
       </c>
-      <c r="D11" s="20">
-        <v>255</v>
-      </c>
+      <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="12">
         <f t="shared" si="0"/>
-        <v>2550</v>
+        <v>0</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -1120,14 +1118,14 @@
     </row>
     <row r="12" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="22"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="15"/>
       <c r="F12" s="16">
         <f>SUM(F6:F11)</f>
-        <v>400000</v>
+        <v>700000</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -1138,11 +1136,11 @@
       <c r="C13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -1165,41 +1163,41 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
-      <c r="C16" s="26"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="3"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
-      <c r="C17" s="26"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
-      <c r="C18" s="26"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
     </row>
     <row r="19" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
@@ -1209,11 +1207,11 @@
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
+      <c r="G19" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
@@ -1221,9 +1219,9 @@
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
@@ -1296,65 +1294,65 @@
       <c r="I27" s="10"/>
     </row>
     <row r="28" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="29" t="str">
+      <c r="B28" s="27" t="str">
         <f>B1</f>
         <v xml:space="preserve">Mugdho Corporation </v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
     </row>
     <row r="29" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B29" s="30" t="str">
+      <c r="B29" s="21" t="str">
         <f>B2</f>
         <v>Komola Super Market, Alaipur, Natore</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
     </row>
     <row r="30" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
     </row>
     <row r="31" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="28" t="str">
+      <c r="B31" s="22" t="str">
         <f>B4</f>
-        <v>Date: 08.08.2021</v>
-      </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
+        <v>Date: 12.08.2021</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
     </row>
     <row r="32" spans="2:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
       <c r="C32" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="21"/>
+      <c r="E32" s="28"/>
       <c r="F32" s="11" t="s">
         <v>1</v>
       </c>
@@ -1368,12 +1366,12 @@
         <v>1000</v>
       </c>
       <c r="D33" s="20">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="5">
         <f t="shared" ref="F33:F38" si="1">SUM(C33*D33)</f>
-        <v>105000</v>
+        <v>145000</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
@@ -1385,12 +1383,12 @@
         <v>500</v>
       </c>
       <c r="D34" s="20">
-        <v>489</v>
+        <v>1000</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="5">
         <f t="shared" si="1"/>
-        <v>244500</v>
+        <v>500000</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
@@ -1402,12 +1400,12 @@
         <v>100</v>
       </c>
       <c r="D35" s="20">
-        <v>454</v>
+        <v>500</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="5">
         <f t="shared" si="1"/>
-        <v>45400</v>
+        <v>50000</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -1419,12 +1417,12 @@
         <v>50</v>
       </c>
       <c r="D36" s="20">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="5">
         <f t="shared" si="1"/>
-        <v>1950</v>
+        <v>3000</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -1436,12 +1434,12 @@
         <v>20</v>
       </c>
       <c r="D37" s="20">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="5">
         <f>SUM(C37*D37)</f>
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -1452,13 +1450,11 @@
       <c r="C38" s="5">
         <v>10</v>
       </c>
-      <c r="D38" s="20">
-        <v>255</v>
-      </c>
+      <c r="D38" s="20"/>
       <c r="E38" s="20"/>
       <c r="F38" s="5">
         <f t="shared" si="1"/>
-        <v>2550</v>
+        <v>0</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
@@ -1466,14 +1462,14 @@
     </row>
     <row r="39" spans="2:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B39" s="10"/>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="25"/>
+      <c r="D39" s="31"/>
       <c r="E39" s="17"/>
       <c r="F39" s="18">
         <f>SUM(F33:F38)</f>
-        <v>400000</v>
+        <v>700000</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -1485,12 +1481,12 @@
         <f>C13</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="D40" s="27" t="str">
+      <c r="D40" s="32" t="str">
         <f>D13</f>
-        <v>Four Lac Taka Only.</v>
-      </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
+        <v>Seven Lac Taka Only.</v>
+      </c>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
@@ -1513,41 +1509,41 @@
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
-      <c r="G42" s="26" t="s">
+      <c r="G42" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
     </row>
     <row r="43" spans="2:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
-      <c r="C43" s="26"/>
+      <c r="C43" s="23"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
-      <c r="C44" s="26"/>
+      <c r="C44" s="23"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
-      <c r="C45" s="26"/>
+      <c r="C45" s="23"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
@@ -1557,34 +1553,15 @@
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
-      <c r="G46" s="23" t="str">
+      <c r="G46" s="24" t="str">
         <f>G19</f>
-        <v>Tanjib</v>
-      </c>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
+        <v>Jafor Iqbal</v>
+      </c>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="D5:E5"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D33:E33"/>
@@ -1601,6 +1578,25 @@
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="B31:I31"/>
     <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B28:I28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Symphony/2021/Others/Cash A.xlsx
+++ b/Symphony/2021/Others/Cash A.xlsx
@@ -66,13 +66,13 @@
     <t>Komola Super Market, Alaipur, Natore</t>
   </si>
   <si>
-    <t>Date: 12.08.2021</t>
+    <t>Date: 19.08.2021</t>
   </si>
   <si>
-    <t>Seven Lac Taka Only.</t>
+    <t>Ten Lac Taka Only.</t>
   </si>
   <si>
-    <t>Jafor Iqbal</t>
+    <t>Tanjib</t>
   </si>
 </sst>
 </file>
@@ -311,40 +311,40 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,62 +951,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="2:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="11" t="s">
         <v>1</v>
       </c>
@@ -1020,12 +1020,12 @@
         <v>1000</v>
       </c>
       <c r="D6" s="20">
-        <v>145</v>
+        <v>436</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="12">
         <f t="shared" ref="F6:F11" si="0">SUM(C6*D6)</f>
-        <v>145000</v>
+        <v>436000</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -1037,12 +1037,12 @@
         <v>500</v>
       </c>
       <c r="D7" s="20">
-        <v>1000</v>
+        <v>928</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="12">
         <f t="shared" si="0"/>
-        <v>500000</v>
+        <v>464000</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -1054,12 +1054,12 @@
         <v>100</v>
       </c>
       <c r="D8" s="20">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="12">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -1070,13 +1070,11 @@
       <c r="C9" s="12">
         <v>50</v>
       </c>
-      <c r="D9" s="20">
-        <v>60</v>
-      </c>
+      <c r="D9" s="20"/>
       <c r="E9" s="20"/>
       <c r="F9" s="12">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -1087,13 +1085,11 @@
       <c r="C10" s="12">
         <v>20</v>
       </c>
-      <c r="D10" s="20">
-        <v>100</v>
-      </c>
+      <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="12">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -1118,14 +1114,14 @@
     </row>
     <row r="12" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="29"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="15"/>
       <c r="F12" s="16">
         <f>SUM(F6:F11)</f>
-        <v>700000</v>
+        <v>1000000</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -1136,11 +1132,11 @@
       <c r="C13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -1163,41 +1159,41 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
-      <c r="C16" s="23"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="3"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
-      <c r="C17" s="23"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
-      <c r="C18" s="23"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
     </row>
     <row r="19" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
@@ -1207,11 +1203,11 @@
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
@@ -1219,9 +1215,9 @@
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
@@ -1294,65 +1290,65 @@
       <c r="I27" s="10"/>
     </row>
     <row r="28" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="27" t="str">
+      <c r="B28" s="29" t="str">
         <f>B1</f>
         <v xml:space="preserve">Mugdho Corporation </v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
     </row>
     <row r="29" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B29" s="21" t="str">
+      <c r="B29" s="30" t="str">
         <f>B2</f>
         <v>Komola Super Market, Alaipur, Natore</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
     </row>
     <row r="30" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
     </row>
     <row r="31" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="22" t="str">
+      <c r="B31" s="28" t="str">
         <f>B4</f>
-        <v>Date: 12.08.2021</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
+        <v>Date: 19.08.2021</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
     </row>
     <row r="32" spans="2:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
       <c r="C32" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="28"/>
+      <c r="E32" s="21"/>
       <c r="F32" s="11" t="s">
         <v>1</v>
       </c>
@@ -1366,12 +1362,12 @@
         <v>1000</v>
       </c>
       <c r="D33" s="20">
-        <v>145</v>
+        <v>436</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="5">
         <f t="shared" ref="F33:F38" si="1">SUM(C33*D33)</f>
-        <v>145000</v>
+        <v>436000</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
@@ -1383,12 +1379,12 @@
         <v>500</v>
       </c>
       <c r="D34" s="20">
-        <v>1000</v>
+        <v>928</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="5">
         <f t="shared" si="1"/>
-        <v>500000</v>
+        <v>464000</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
@@ -1400,12 +1396,12 @@
         <v>100</v>
       </c>
       <c r="D35" s="20">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="5">
         <f t="shared" si="1"/>
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -1416,13 +1412,11 @@
       <c r="C36" s="5">
         <v>50</v>
       </c>
-      <c r="D36" s="20">
-        <v>60</v>
-      </c>
+      <c r="D36" s="20"/>
       <c r="E36" s="20"/>
       <c r="F36" s="5">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -1433,13 +1427,11 @@
       <c r="C37" s="5">
         <v>20</v>
       </c>
-      <c r="D37" s="20">
-        <v>100</v>
-      </c>
+      <c r="D37" s="20"/>
       <c r="E37" s="20"/>
       <c r="F37" s="5">
         <f>SUM(C37*D37)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -1462,14 +1454,14 @@
     </row>
     <row r="39" spans="2:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B39" s="10"/>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="31"/>
+      <c r="D39" s="25"/>
       <c r="E39" s="17"/>
       <c r="F39" s="18">
         <f>SUM(F33:F38)</f>
-        <v>700000</v>
+        <v>1000000</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -1481,12 +1473,12 @@
         <f>C13</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="D40" s="32" t="str">
+      <c r="D40" s="27" t="str">
         <f>D13</f>
-        <v>Seven Lac Taka Only.</v>
-      </c>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
+        <v>Ten Lac Taka Only.</v>
+      </c>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
@@ -1509,41 +1501,41 @@
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
-      <c r="G42" s="23" t="s">
+      <c r="G42" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
     </row>
     <row r="43" spans="2:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
-      <c r="C43" s="23"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
-      <c r="C44" s="23"/>
+      <c r="C44" s="26"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
-      <c r="C45" s="23"/>
+      <c r="C45" s="26"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
@@ -1553,15 +1545,34 @@
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
-      <c r="G46" s="24" t="str">
+      <c r="G46" s="23" t="str">
         <f>G19</f>
-        <v>Jafor Iqbal</v>
-      </c>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
+        <v>Tanjib</v>
+      </c>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D33:E33"/>
@@ -1578,25 +1589,6 @@
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="B31:I31"/>
     <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B28:I28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Symphony/2021/Others/Cash A.xlsx
+++ b/Symphony/2021/Others/Cash A.xlsx
@@ -66,13 +66,13 @@
     <t>Komola Super Market, Alaipur, Natore</t>
   </si>
   <si>
-    <t>Date: 19.08.2021</t>
-  </si>
-  <si>
     <t>Ten Lac Taka Only.</t>
   </si>
   <si>
-    <t>Tanjib</t>
+    <t>Date: 26.08.2021</t>
+  </si>
+  <si>
+    <t>Jafor Iqbal</t>
   </si>
 </sst>
 </file>
@@ -311,40 +311,40 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L38" sqref="L37:L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,62 +951,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="B4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
     </row>
     <row r="5" spans="2:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="11" t="s">
         <v>1</v>
       </c>
@@ -1020,12 +1020,12 @@
         <v>1000</v>
       </c>
       <c r="D6" s="20">
-        <v>436</v>
+        <v>400</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="12">
         <f t="shared" ref="F6:F11" si="0">SUM(C6*D6)</f>
-        <v>436000</v>
+        <v>400000</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -1037,12 +1037,12 @@
         <v>500</v>
       </c>
       <c r="D7" s="20">
-        <v>928</v>
+        <v>1000</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="12">
         <f t="shared" si="0"/>
-        <v>464000</v>
+        <v>500000</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -1054,12 +1054,12 @@
         <v>100</v>
       </c>
       <c r="D8" s="20">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="12">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -1070,11 +1070,13 @@
       <c r="C9" s="12">
         <v>50</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="20">
+        <v>40</v>
+      </c>
       <c r="E9" s="20"/>
       <c r="F9" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -1085,11 +1087,13 @@
       <c r="C10" s="12">
         <v>20</v>
       </c>
-      <c r="D10" s="20"/>
+      <c r="D10" s="20">
+        <v>300</v>
+      </c>
       <c r="E10" s="20"/>
       <c r="F10" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -1102,11 +1106,13 @@
       <c r="C11" s="12">
         <v>10</v>
       </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="20">
+        <v>200</v>
+      </c>
       <c r="E11" s="20"/>
       <c r="F11" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -1114,10 +1120,10 @@
     </row>
     <row r="12" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="22"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="15"/>
       <c r="F12" s="16">
         <f>SUM(F6:F11)</f>
@@ -1132,11 +1138,11 @@
       <c r="C13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
+      <c r="D13" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -1159,41 +1165,41 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
-      <c r="C16" s="26"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="3"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
-      <c r="C17" s="26"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
-      <c r="C18" s="26"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
     </row>
     <row r="19" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
@@ -1203,11 +1209,11 @@
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
@@ -1215,9 +1221,9 @@
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
@@ -1290,65 +1296,65 @@
       <c r="I27" s="10"/>
     </row>
     <row r="28" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="29" t="str">
+      <c r="B28" s="27" t="str">
         <f>B1</f>
         <v xml:space="preserve">Mugdho Corporation </v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
     </row>
     <row r="29" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B29" s="30" t="str">
+      <c r="B29" s="21" t="str">
         <f>B2</f>
         <v>Komola Super Market, Alaipur, Natore</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
     </row>
     <row r="30" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
     </row>
     <row r="31" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="28" t="str">
+      <c r="B31" s="22" t="str">
         <f>B4</f>
-        <v>Date: 19.08.2021</v>
-      </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
+        <v>Date: 26.08.2021</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
     </row>
     <row r="32" spans="2:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
       <c r="C32" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="21"/>
+      <c r="E32" s="28"/>
       <c r="F32" s="11" t="s">
         <v>1</v>
       </c>
@@ -1362,12 +1368,12 @@
         <v>1000</v>
       </c>
       <c r="D33" s="20">
-        <v>436</v>
+        <v>400</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="5">
         <f t="shared" ref="F33:F38" si="1">SUM(C33*D33)</f>
-        <v>436000</v>
+        <v>400000</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
@@ -1379,12 +1385,12 @@
         <v>500</v>
       </c>
       <c r="D34" s="20">
-        <v>928</v>
+        <v>1000</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="5">
         <f t="shared" si="1"/>
-        <v>464000</v>
+        <v>500000</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
@@ -1396,12 +1402,12 @@
         <v>100</v>
       </c>
       <c r="D35" s="20">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="5">
         <f t="shared" si="1"/>
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -1412,11 +1418,13 @@
       <c r="C36" s="5">
         <v>50</v>
       </c>
-      <c r="D36" s="20"/>
+      <c r="D36" s="20">
+        <v>40</v>
+      </c>
       <c r="E36" s="20"/>
       <c r="F36" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -1427,11 +1435,13 @@
       <c r="C37" s="5">
         <v>20</v>
       </c>
-      <c r="D37" s="20"/>
+      <c r="D37" s="20">
+        <v>300</v>
+      </c>
       <c r="E37" s="20"/>
       <c r="F37" s="5">
         <f>SUM(C37*D37)</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -1442,11 +1452,13 @@
       <c r="C38" s="5">
         <v>10</v>
       </c>
-      <c r="D38" s="20"/>
+      <c r="D38" s="20">
+        <v>200</v>
+      </c>
       <c r="E38" s="20"/>
       <c r="F38" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
@@ -1454,10 +1466,10 @@
     </row>
     <row r="39" spans="2:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B39" s="10"/>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="25"/>
+      <c r="D39" s="31"/>
       <c r="E39" s="17"/>
       <c r="F39" s="18">
         <f>SUM(F33:F38)</f>
@@ -1473,12 +1485,12 @@
         <f>C13</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="D40" s="27" t="str">
+      <c r="D40" s="32" t="str">
         <f>D13</f>
         <v>Ten Lac Taka Only.</v>
       </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
@@ -1501,41 +1513,41 @@
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
-      <c r="G42" s="26" t="s">
+      <c r="G42" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
     </row>
     <row r="43" spans="2:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
-      <c r="C43" s="26"/>
+      <c r="C43" s="23"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
-      <c r="C44" s="26"/>
+      <c r="C44" s="23"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
-      <c r="C45" s="26"/>
+      <c r="C45" s="23"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
@@ -1545,34 +1557,15 @@
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
-      <c r="G46" s="23" t="str">
+      <c r="G46" s="24" t="str">
         <f>G19</f>
-        <v>Tanjib</v>
-      </c>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
+        <v>Jafor Iqbal</v>
+      </c>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="D5:E5"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D33:E33"/>
@@ -1589,6 +1582,25 @@
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="B31:I31"/>
     <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B28:I28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Symphony/2021/Others/Cash A.xlsx
+++ b/Symphony/2021/Others/Cash A.xlsx
@@ -66,13 +66,13 @@
     <t>Komola Super Market, Alaipur, Natore</t>
   </si>
   <si>
-    <t>Ten Lac Taka Only.</t>
+    <t>Jafor Iqbal</t>
   </si>
   <si>
-    <t>Date: 26.08.2021</t>
+    <t>Date: 29.08.2021</t>
   </si>
   <si>
-    <t>Jafor Iqbal</t>
+    <t>Eight Lac Taka Only.</t>
   </si>
 </sst>
 </file>
@@ -311,40 +311,40 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L38" sqref="L37:L38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,62 +951,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="2:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="11" t="s">
         <v>1</v>
       </c>
@@ -1020,12 +1020,12 @@
         <v>1000</v>
       </c>
       <c r="D6" s="20">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="12">
         <f t="shared" ref="F6:F11" si="0">SUM(C6*D6)</f>
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -1037,12 +1037,12 @@
         <v>500</v>
       </c>
       <c r="D7" s="20">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="12">
         <f t="shared" si="0"/>
-        <v>500000</v>
+        <v>400000</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -1054,12 +1054,12 @@
         <v>100</v>
       </c>
       <c r="D8" s="20">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="12">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>160000</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -1070,13 +1070,11 @@
       <c r="C9" s="12">
         <v>50</v>
       </c>
-      <c r="D9" s="20">
-        <v>40</v>
-      </c>
+      <c r="D9" s="20"/>
       <c r="E9" s="20"/>
       <c r="F9" s="12">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -1087,13 +1085,11 @@
       <c r="C10" s="12">
         <v>20</v>
       </c>
-      <c r="D10" s="20">
-        <v>300</v>
-      </c>
+      <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="12">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -1106,13 +1102,11 @@
       <c r="C11" s="12">
         <v>10</v>
       </c>
-      <c r="D11" s="20">
-        <v>200</v>
-      </c>
+      <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="12">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -1120,14 +1114,14 @@
     </row>
     <row r="12" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="29"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="15"/>
       <c r="F12" s="16">
         <f>SUM(F6:F11)</f>
-        <v>1000000</v>
+        <v>800000</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -1138,11 +1132,11 @@
       <c r="C13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
+      <c r="D13" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -1165,41 +1159,41 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
-      <c r="C16" s="23"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="3"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
-      <c r="C17" s="23"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
-      <c r="C18" s="23"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
     </row>
     <row r="19" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
@@ -1209,11 +1203,11 @@
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
+      <c r="G19" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
@@ -1221,9 +1215,9 @@
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
@@ -1296,65 +1290,65 @@
       <c r="I27" s="10"/>
     </row>
     <row r="28" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="27" t="str">
+      <c r="B28" s="29" t="str">
         <f>B1</f>
         <v xml:space="preserve">Mugdho Corporation </v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
     </row>
     <row r="29" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B29" s="21" t="str">
+      <c r="B29" s="30" t="str">
         <f>B2</f>
         <v>Komola Super Market, Alaipur, Natore</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
     </row>
     <row r="30" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
     </row>
     <row r="31" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="22" t="str">
+      <c r="B31" s="28" t="str">
         <f>B4</f>
-        <v>Date: 26.08.2021</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
+        <v>Date: 29.08.2021</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
     </row>
     <row r="32" spans="2:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
       <c r="C32" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="28"/>
+      <c r="E32" s="21"/>
       <c r="F32" s="11" t="s">
         <v>1</v>
       </c>
@@ -1368,12 +1362,12 @@
         <v>1000</v>
       </c>
       <c r="D33" s="20">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="5">
         <f t="shared" ref="F33:F38" si="1">SUM(C33*D33)</f>
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
@@ -1385,12 +1379,12 @@
         <v>500</v>
       </c>
       <c r="D34" s="20">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="5">
         <f t="shared" si="1"/>
-        <v>500000</v>
+        <v>400000</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
@@ -1402,12 +1396,12 @@
         <v>100</v>
       </c>
       <c r="D35" s="20">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="5">
         <f t="shared" si="1"/>
-        <v>90000</v>
+        <v>160000</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -1418,13 +1412,11 @@
       <c r="C36" s="5">
         <v>50</v>
       </c>
-      <c r="D36" s="20">
-        <v>40</v>
-      </c>
+      <c r="D36" s="20"/>
       <c r="E36" s="20"/>
       <c r="F36" s="5">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -1435,13 +1427,11 @@
       <c r="C37" s="5">
         <v>20</v>
       </c>
-      <c r="D37" s="20">
-        <v>300</v>
-      </c>
+      <c r="D37" s="20"/>
       <c r="E37" s="20"/>
       <c r="F37" s="5">
         <f>SUM(C37*D37)</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -1452,13 +1442,11 @@
       <c r="C38" s="5">
         <v>10</v>
       </c>
-      <c r="D38" s="20">
-        <v>200</v>
-      </c>
+      <c r="D38" s="20"/>
       <c r="E38" s="20"/>
       <c r="F38" s="5">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
@@ -1466,14 +1454,14 @@
     </row>
     <row r="39" spans="2:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B39" s="10"/>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="31"/>
+      <c r="D39" s="25"/>
       <c r="E39" s="17"/>
       <c r="F39" s="18">
         <f>SUM(F33:F38)</f>
-        <v>1000000</v>
+        <v>800000</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -1485,12 +1473,12 @@
         <f>C13</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="D40" s="32" t="str">
+      <c r="D40" s="27" t="str">
         <f>D13</f>
-        <v>Ten Lac Taka Only.</v>
-      </c>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
+        <v>Eight Lac Taka Only.</v>
+      </c>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
@@ -1513,41 +1501,41 @@
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
-      <c r="G42" s="23" t="s">
+      <c r="G42" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
     </row>
     <row r="43" spans="2:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
-      <c r="C43" s="23"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
-      <c r="C44" s="23"/>
+      <c r="C44" s="26"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
-      <c r="C45" s="23"/>
+      <c r="C45" s="26"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
@@ -1557,15 +1545,34 @@
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
-      <c r="G46" s="24" t="str">
+      <c r="G46" s="23" t="str">
         <f>G19</f>
         <v>Jafor Iqbal</v>
       </c>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D33:E33"/>
@@ -1582,25 +1589,6 @@
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="B31:I31"/>
     <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B28:I28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Symphony/2021/Others/Cash A.xlsx
+++ b/Symphony/2021/Others/Cash A.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Currency Value</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Jafor Iqbal</t>
   </si>
   <si>
-    <t>Seven Lac Taka Only.</t>
-  </si>
-  <si>
     <t>Cash RECEIVED BY</t>
   </si>
   <si>
@@ -68,13 +65,19 @@
   <si>
     <t>Cash Transfer to Natore bKash, Order as per Abdul Mannan Tipu</t>
   </si>
+  <si>
+    <t>Five Lac Taka Only.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -395,38 +398,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -440,18 +416,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -465,17 +435,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -483,9 +447,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -512,12 +473,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -526,6 +490,45 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1115,10 +1118,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,173 +1132,182 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6">
+        <f ca="1">TODAY()</f>
+        <v>44448</v>
+      </c>
+      <c r="C2" s="32"/>
+    </row>
+    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13"/>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="10">
-        <f ca="1">TODAY()</f>
-        <v>44443</v>
-      </c>
-      <c r="C2" s="46"/>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="15"/>
-    </row>
-    <row r="4" spans="1:3" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
-    </row>
-    <row r="5" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+    </row>
+    <row r="4" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+    </row>
+    <row r="5" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+    <row r="6" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>1000</v>
       </c>
       <c r="B6" s="4">
         <v>100</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="10">
         <f t="shared" ref="C6:C11" si="0">SUM(A6*B6)</f>
         <v>100000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+    <row r="7" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>500</v>
       </c>
       <c r="B7" s="4">
-        <v>900</v>
-      </c>
-      <c r="C7" s="19">
+        <v>618</v>
+      </c>
+      <c r="C7" s="10">
         <f t="shared" si="0"/>
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+        <v>309000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>100</v>
       </c>
       <c r="B8" s="4">
-        <v>1500</v>
-      </c>
-      <c r="C8" s="19">
+        <v>786</v>
+      </c>
+      <c r="C8" s="10">
         <f t="shared" si="0"/>
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+        <v>78600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>50</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="19">
+      <c r="B9" s="4">
+        <v>86</v>
+      </c>
+      <c r="C9" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+        <v>4300</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>20</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="19">
+      <c r="B10" s="4">
+        <v>40</v>
+      </c>
+      <c r="C10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="19">
+      <c r="B11" s="4">
+        <v>730</v>
+      </c>
+      <c r="C11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="21">
+      <c r="B12" s="42"/>
+      <c r="C12" s="11">
         <f>SUM(C6:C11)</f>
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="47"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="23"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="45"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="34"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="31"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="34"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="31"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="34"/>
     </row>
     <row r="19" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="39" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="43"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
@@ -1333,192 +1345,198 @@
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+    </row>
+    <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="6">
+        <f ca="1">B2</f>
+        <v>44448</v>
+      </c>
+      <c r="C29" s="32"/>
+    </row>
+    <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-    </row>
-    <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="10">
-        <f ca="1">B2</f>
-        <v>44443</v>
-      </c>
-      <c r="C29" s="46"/>
-    </row>
-    <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="15"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="40"/>
     </row>
     <row r="31" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="48"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="37"/>
     </row>
     <row r="32" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="33">
+      <c r="A33" s="20">
         <v>1000</v>
       </c>
       <c r="B33" s="4">
         <v>100</v>
       </c>
-      <c r="C33" s="34">
+      <c r="C33" s="21">
         <f t="shared" ref="C33:C38" si="1">SUM(A33*B33)</f>
         <v>100000</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="33">
+      <c r="A34" s="20">
         <v>500</v>
       </c>
       <c r="B34" s="4">
-        <v>900</v>
-      </c>
-      <c r="C34" s="34">
+        <v>618</v>
+      </c>
+      <c r="C34" s="21">
         <f t="shared" si="1"/>
-        <v>450000</v>
+        <v>309000</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="33">
+      <c r="A35" s="20">
         <v>100</v>
       </c>
       <c r="B35" s="4">
-        <v>1500</v>
-      </c>
-      <c r="C35" s="34">
+        <v>786</v>
+      </c>
+      <c r="C35" s="21">
         <f t="shared" si="1"/>
-        <v>150000</v>
+        <v>78600</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="33">
+      <c r="A36" s="20">
         <v>50</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="34">
+      <c r="B36" s="4">
+        <v>86</v>
+      </c>
+      <c r="C36" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="33">
+      <c r="A37" s="20">
         <v>20</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="34">
+      <c r="B37" s="4">
+        <v>40</v>
+      </c>
+      <c r="C37" s="21">
         <f>SUM(A37*B37)</f>
-        <v>0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="33">
+      <c r="A38" s="20">
         <v>10</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="34">
+      <c r="B38" s="4">
+        <v>730</v>
+      </c>
+      <c r="C38" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="36">
+      <c r="B39" s="44"/>
+      <c r="C39" s="22">
         <f>SUM(C33:C38)</f>
-        <v>700000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="str">
+      <c r="A40" s="12" t="str">
         <f>A13</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="B40" s="7" t="str">
+      <c r="B40" s="46" t="str">
         <f>B13</f>
-        <v>Seven Lac Taka Only.</v>
-      </c>
-      <c r="C40" s="23"/>
+        <v>Five Lac Taka Only.</v>
+      </c>
+      <c r="C40" s="47"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="26"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="15"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="28" t="s">
-        <v>10</v>
+      <c r="B42" s="14"/>
+      <c r="C42" s="17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="31"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="34"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="31"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="34"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="31"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="34"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="38"/>
-      <c r="C46" s="39" t="str">
+      <c r="B46" s="24"/>
+      <c r="C46" s="25" t="str">
         <f>C19</f>
         <v>Jafor Iqbal</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="40"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="42"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A30:C30"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0" top="0.25" bottom="0" header="0" footer="0"/>

--- a/Symphony/2021/Others/Cash A.xlsx
+++ b/Symphony/2021/Others/Cash A.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Currency Value</t>
   </si>
@@ -66,10 +66,10 @@
     <t>Cash Transfer to Natore bKash, Order as per Abdul Mannan Tipu</t>
   </si>
   <si>
-    <t>Five Lac Taka Only.</t>
+    <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
+    <t>Twelve Lac Taka Only.</t>
   </si>
 </sst>
 </file>
@@ -479,6 +479,45 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -490,45 +529,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1115,13 +1115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,11 +1130,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -1145,7 +1142,7 @@
       </c>
       <c r="B2" s="6">
         <f ca="1">TODAY()</f>
-        <v>44448</v>
+        <v>44455</v>
       </c>
       <c r="C2" s="32"/>
     </row>
@@ -1157,9 +1154,9 @@
       <c r="C3" s="40"/>
     </row>
     <row r="4" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="50"/>
     </row>
     <row r="5" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -1177,11 +1174,11 @@
         <v>1000</v>
       </c>
       <c r="B6" s="4">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="C6" s="10">
         <f t="shared" ref="C6:C11" si="0">SUM(A6*B6)</f>
-        <v>100000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1189,11 +1186,11 @@
         <v>500</v>
       </c>
       <c r="B7" s="4">
-        <v>618</v>
+        <v>1416</v>
       </c>
       <c r="C7" s="10">
         <f t="shared" si="0"/>
-        <v>309000</v>
+        <v>708000</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1201,11 +1198,11 @@
         <v>100</v>
       </c>
       <c r="B8" s="4">
-        <v>786</v>
+        <v>800</v>
       </c>
       <c r="C8" s="10">
         <f t="shared" si="0"/>
-        <v>78600</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1213,26 +1210,24 @@
         <v>50</v>
       </c>
       <c r="B9" s="4">
-        <v>86</v>
+        <v>200</v>
       </c>
       <c r="C9" s="10">
         <f t="shared" si="0"/>
-        <v>4300</v>
+        <v>10000</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>20</v>
       </c>
-      <c r="B10" s="4">
-        <v>40</v>
-      </c>
+      <c r="B10" s="4"/>
       <c r="C10" s="10">
         <f t="shared" si="0"/>
-        <v>800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1240,11 +1235,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>730</v>
+        <v>200</v>
       </c>
       <c r="C11" s="10">
         <f t="shared" si="0"/>
-        <v>7300</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
@@ -1254,17 +1249,17 @@
       <c r="B12" s="42"/>
       <c r="C12" s="11">
         <f>SUM(C6:C11)</f>
-        <v>500000</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="47"/>
+      <c r="B13" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="46"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
@@ -1281,19 +1276,19 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="18"/>
-      <c r="C16" s="34"/>
+      <c r="C16" s="47"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="19"/>
-      <c r="C17" s="34"/>
+      <c r="C17" s="47"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="34"/>
+      <c r="C18" s="47"/>
     </row>
     <row r="19" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
@@ -1345,11 +1340,11 @@
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
     </row>
     <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
@@ -1357,7 +1352,7 @@
       </c>
       <c r="B29" s="6">
         <f ca="1">B2</f>
-        <v>44448</v>
+        <v>44455</v>
       </c>
       <c r="C29" s="32"/>
     </row>
@@ -1369,9 +1364,9 @@
       <c r="C30" s="40"/>
     </row>
     <row r="31" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="50"/>
     </row>
     <row r="32" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
@@ -1384,105 +1379,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <v>1000</v>
       </c>
       <c r="B33" s="4">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="C33" s="21">
         <f t="shared" ref="C33:C38" si="1">SUM(A33*B33)</f>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>500</v>
       </c>
       <c r="B34" s="4">
-        <v>618</v>
+        <v>1416</v>
       </c>
       <c r="C34" s="21">
         <f t="shared" si="1"/>
-        <v>309000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+        <v>708000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
         <v>100</v>
       </c>
       <c r="B35" s="4">
-        <v>786</v>
+        <v>800</v>
       </c>
       <c r="C35" s="21">
         <f t="shared" si="1"/>
-        <v>78600</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
         <v>50</v>
       </c>
       <c r="B36" s="4">
-        <v>86</v>
+        <v>200</v>
       </c>
       <c r="C36" s="21">
         <f t="shared" si="1"/>
-        <v>4300</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <v>20</v>
       </c>
-      <c r="B37" s="4">
-        <v>40</v>
-      </c>
+      <c r="B37" s="4"/>
       <c r="C37" s="21">
         <f>SUM(A37*B37)</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
         <v>10</v>
       </c>
       <c r="B38" s="4">
-        <v>730</v>
+        <v>200</v>
       </c>
       <c r="C38" s="21">
         <f t="shared" si="1"/>
-        <v>7300</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A39" s="43" t="s">
         <v>4</v>
       </c>
       <c r="B39" s="44"/>
       <c r="C39" s="22">
         <f>SUM(C33:C38)</f>
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="str">
         <f>A13</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="B40" s="46" t="str">
+      <c r="B40" s="45" t="str">
         <f>B13</f>
-        <v>Five Lac Taka Only.</v>
-      </c>
-      <c r="C40" s="47"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>Twelve Lac Taka Only.</v>
+      </c>
+      <c r="C40" s="46"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="15"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>3</v>
       </c>
@@ -1491,22 +1484,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
+    <row r="43" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="37"/>
       <c r="B43" s="19"/>
-      <c r="C43" s="34"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
+      <c r="C43" s="47"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="37"/>
       <c r="B44" s="14"/>
-      <c r="C44" s="34"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
+      <c r="C44" s="47"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="37"/>
       <c r="B45" s="14"/>
-      <c r="C45" s="34"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="47"/>
+      <c r="L45" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
         <v>5</v>
       </c>
@@ -1516,18 +1512,13 @@
         <v>Jafor Iqbal</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="26"/>
       <c r="B47" s="27"/>
       <c r="C47" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="B40:C40"/>
@@ -1535,12 +1526,17 @@
     <mergeCell ref="C43:C45"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A30:C30"/>
   </mergeCells>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.25" right="0" top="0.25" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="85" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="1.75" right="0" top="0.25" bottom="0" header="0" footer="0"/>
+  <pageSetup scale="80" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Symphony/2021/Others/Cash A.xlsx
+++ b/Symphony/2021/Others/Cash A.xlsx
@@ -69,7 +69,7 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>Twelve Lac Taka Only.</t>
+    <t>Seven Lac Taka Only.</t>
   </si>
 </sst>
 </file>
@@ -479,17 +479,32 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -500,35 +515,20 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,13 +553,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1228725</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1228725</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>395445</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -753,13 +753,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>180977</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2028825</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -803,13 +803,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1809750</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1115,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,11 +1130,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -1142,21 +1142,21 @@
       </c>
       <c r="B2" s="6">
         <f ca="1">TODAY()</f>
-        <v>44455</v>
+        <v>44462</v>
       </c>
       <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
     </row>
     <row r="4" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
     </row>
     <row r="5" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -1174,11 +1174,11 @@
         <v>1000</v>
       </c>
       <c r="B6" s="4">
-        <v>400</v>
+        <v>308</v>
       </c>
       <c r="C6" s="10">
         <f t="shared" ref="C6:C11" si="0">SUM(A6*B6)</f>
-        <v>400000</v>
+        <v>308000</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1186,11 +1186,11 @@
         <v>500</v>
       </c>
       <c r="B7" s="4">
-        <v>1416</v>
+        <v>600</v>
       </c>
       <c r="C7" s="10">
         <f t="shared" si="0"/>
-        <v>708000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1198,23 +1198,21 @@
         <v>100</v>
       </c>
       <c r="B8" s="4">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="C8" s="10">
         <f t="shared" si="0"/>
-        <v>80000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>50</v>
       </c>
-      <c r="B9" s="4">
-        <v>200</v>
-      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>13</v>
@@ -1243,23 +1241,23 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="42"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="11">
         <f>SUM(C6:C11)</f>
-        <v>1200000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="46"/>
+      <c r="C13" s="38"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
@@ -1276,19 +1274,19 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="18"/>
-      <c r="C16" s="47"/>
+      <c r="C16" s="39"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="19"/>
-      <c r="C17" s="47"/>
+      <c r="C17" s="39"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="47"/>
+      <c r="C18" s="39"/>
     </row>
     <row r="19" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
@@ -1314,229 +1312,207 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="36"/>
-    </row>
-    <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
+    </row>
+    <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B25" s="6">
         <f ca="1">B2</f>
-        <v>44455</v>
-      </c>
-      <c r="C29" s="32"/>
-    </row>
-    <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="38" t="s">
+        <v>44462</v>
+      </c>
+      <c r="C25" s="32"/>
+    </row>
+    <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="40"/>
-    </row>
-    <row r="31" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="48"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
-    </row>
-    <row r="32" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+    </row>
+    <row r="27" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="40"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+    </row>
+    <row r="28" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="20">
+        <v>1000</v>
+      </c>
+      <c r="B29" s="4">
+        <v>308</v>
+      </c>
+      <c r="C29" s="21">
+        <f t="shared" ref="C29:C34" si="1">SUM(A29*B29)</f>
+        <v>308000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="20">
+        <v>500</v>
+      </c>
+      <c r="B30" s="4">
+        <v>600</v>
+      </c>
+      <c r="C30" s="21">
+        <f t="shared" si="1"/>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="20">
+        <v>100</v>
+      </c>
+      <c r="B31" s="4">
+        <v>900</v>
+      </c>
+      <c r="C31" s="21">
+        <f t="shared" si="1"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="20">
+        <v>50</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
-        <v>1000</v>
-      </c>
-      <c r="B33" s="4">
-        <v>400</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B33" s="4"/>
       <c r="C33" s="21">
-        <f t="shared" ref="C33:C38" si="1">SUM(A33*B33)</f>
-        <v>400000</v>
+        <f>SUM(A33*B33)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="B34" s="4">
-        <v>1416</v>
+        <v>200</v>
       </c>
       <c r="C34" s="21">
         <f t="shared" si="1"/>
-        <v>708000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="20">
-        <v>100</v>
-      </c>
-      <c r="B35" s="4">
-        <v>800</v>
-      </c>
-      <c r="C35" s="21">
-        <f t="shared" si="1"/>
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="20">
-        <v>50</v>
-      </c>
-      <c r="B36" s="4">
-        <v>200</v>
-      </c>
-      <c r="C36" s="21">
-        <f t="shared" si="1"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="20">
-        <v>20</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="21">
-        <f>SUM(A37*B37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="20">
-        <v>10</v>
-      </c>
-      <c r="B38" s="4">
-        <v>200</v>
-      </c>
-      <c r="C38" s="21">
-        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="43" t="s">
+    <row r="35" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="22">
-        <f>SUM(C33:C38)</f>
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="str">
+      <c r="B35" s="35"/>
+      <c r="C35" s="22">
+        <f>SUM(C29:C34)</f>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="str">
         <f>A13</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="B40" s="45" t="str">
+      <c r="B36" s="37" t="str">
         <f>B13</f>
-        <v>Twelve Lac Taka Only.</v>
-      </c>
-      <c r="C40" s="46"/>
+        <v>Seven Lac Taka Only.</v>
+      </c>
+      <c r="C36" s="38"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="36"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="39"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="36"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="39"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
+      <c r="C41" s="39"/>
+      <c r="L41" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="47"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="47"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="47"/>
-      <c r="L45" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="23" t="s">
+      <c r="A42" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="25" t="str">
+      <c r="B42" s="24"/>
+      <c r="C42" s="25" t="str">
         <f>C19</f>
         <v>Jafor Iqbal</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="26"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="28"/>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="26"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A30:C30"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A24:C24"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1.75" right="0" top="0.25" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="80" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Symphony/2021/Others/Cash A.xlsx
+++ b/Symphony/2021/Others/Cash A.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Currency Value</t>
   </si>
@@ -69,7 +69,13 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>Seven Lac Taka Only.</t>
+    <t>Ten Lac Taka Only.</t>
+  </si>
+  <si>
+    <t>Finace Officer at bKash Natore Office</t>
+  </si>
+  <si>
+    <t>Manager at Mugdho Corporation</t>
   </si>
 </sst>
 </file>
@@ -461,16 +467,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -479,13 +477,46 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -497,39 +528,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1117,46 +1123,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="34.85546875" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="6">
         <f ca="1">TODAY()</f>
-        <v>44462</v>
-      </c>
-      <c r="C2" s="32"/>
+        <v>44476</v>
+      </c>
+      <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
     </row>
     <row r="4" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
     </row>
     <row r="5" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -1174,11 +1180,11 @@
         <v>1000</v>
       </c>
       <c r="B6" s="4">
-        <v>308</v>
+        <v>500</v>
       </c>
       <c r="C6" s="10">
         <f t="shared" ref="C6:C11" si="0">SUM(A6*B6)</f>
-        <v>308000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1186,11 +1192,11 @@
         <v>500</v>
       </c>
       <c r="B7" s="4">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="C7" s="10">
         <f t="shared" si="0"/>
-        <v>300000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1198,11 +1204,11 @@
         <v>100</v>
       </c>
       <c r="B8" s="4">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="C8" s="10">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1232,32 +1238,30 @@
       <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
-        <v>200</v>
-      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="10">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="50"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="11">
         <f>SUM(C6:C11)</f>
-        <v>700000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="38"/>
+      <c r="C13" s="45"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
@@ -1274,19 +1278,19 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="18"/>
-      <c r="C16" s="39"/>
+      <c r="C16" s="46"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="19"/>
-      <c r="C17" s="39"/>
+      <c r="C17" s="46"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="39"/>
+      <c r="C18" s="46"/>
     </row>
     <row r="19" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
@@ -1298,9 +1302,13 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
+      <c r="A20" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="47" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
@@ -1318,33 +1326,33 @@
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="48"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
     </row>
     <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="6">
         <f ca="1">B2</f>
-        <v>44462</v>
-      </c>
-      <c r="C25" s="32"/>
+        <v>44476</v>
+      </c>
+      <c r="C25" s="28"/>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="36"/>
     </row>
     <row r="27" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="41"/>
     </row>
     <row r="28" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
@@ -1362,11 +1370,11 @@
         <v>1000</v>
       </c>
       <c r="B29" s="4">
-        <v>308</v>
+        <v>500</v>
       </c>
       <c r="C29" s="21">
         <f t="shared" ref="C29:C34" si="1">SUM(A29*B29)</f>
-        <v>308000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1374,11 +1382,11 @@
         <v>500</v>
       </c>
       <c r="B30" s="4">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="C30" s="21">
         <f t="shared" si="1"/>
-        <v>300000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1386,11 +1394,11 @@
         <v>100</v>
       </c>
       <c r="B31" s="4">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="C31" s="21">
         <f t="shared" si="1"/>
-        <v>90000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1417,22 +1425,20 @@
       <c r="A34" s="20">
         <v>10</v>
       </c>
-      <c r="B34" s="4">
-        <v>200</v>
-      </c>
+      <c r="B34" s="4"/>
       <c r="C34" s="21">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="35"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="22">
         <f>SUM(C29:C34)</f>
-        <v>700000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1440,11 +1446,11 @@
         <f>A13</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="B36" s="37" t="str">
+      <c r="B36" s="44" t="str">
         <f>B13</f>
-        <v>Seven Lac Taka Only.</v>
-      </c>
-      <c r="C36" s="38"/>
+        <v>Ten Lac Taka Only.</v>
+      </c>
+      <c r="C36" s="45"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
@@ -1461,19 +1467,19 @@
       </c>
     </row>
     <row r="39" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
+      <c r="A39" s="33"/>
       <c r="B39" s="19"/>
-      <c r="C39" s="39"/>
+      <c r="C39" s="46"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
+      <c r="A40" s="33"/>
       <c r="B40" s="14"/>
-      <c r="C40" s="39"/>
+      <c r="C40" s="46"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="14"/>
-      <c r="C41" s="39"/>
+      <c r="C41" s="46"/>
       <c r="L41" s="1" t="s">
         <v>13</v>
       </c>
@@ -1489,18 +1495,18 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="26"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="28"/>
+      <c r="A43" s="49" t="str">
+        <f>A20</f>
+        <v>Manager at Mugdho Corporation</v>
+      </c>
+      <c r="B43" s="26"/>
+      <c r="C43" s="50" t="str">
+        <f>C20</f>
+        <v>Finace Officer at bKash Natore Office</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="B36:C36"/>
@@ -1509,9 +1515,15 @@
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="1.75" right="0" top="0.25" bottom="0" header="0" footer="0"/>
+  <pageMargins left="1" right="0" top="0.25" bottom="0" header="0" footer="0"/>
   <pageSetup scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/Symphony/2021/Others/Cash A.xlsx
+++ b/Symphony/2021/Others/Cash A.xlsx
@@ -477,17 +477,40 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -498,44 +521,21 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1123,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,11 +1136,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
@@ -1148,21 +1148,21 @@
       </c>
       <c r="B2" s="6">
         <f ca="1">TODAY()</f>
-        <v>44476</v>
+        <v>44485</v>
       </c>
       <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
     </row>
     <row r="4" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
     </row>
     <row r="5" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -1180,11 +1180,11 @@
         <v>1000</v>
       </c>
       <c r="B6" s="4">
-        <v>500</v>
+        <v>153</v>
       </c>
       <c r="C6" s="10">
         <f t="shared" ref="C6:C11" si="0">SUM(A6*B6)</f>
-        <v>500000</v>
+        <v>153000</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1192,11 +1192,11 @@
         <v>500</v>
       </c>
       <c r="B7" s="4">
-        <v>800</v>
+        <v>274</v>
       </c>
       <c r="C7" s="10">
         <f t="shared" si="0"/>
-        <v>400000</v>
+        <v>137000</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1204,21 +1204,23 @@
         <v>100</v>
       </c>
       <c r="B8" s="4">
-        <v>1000</v>
+        <v>565</v>
       </c>
       <c r="C8" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>56500</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>50</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="4">
+        <v>43</v>
+      </c>
       <c r="C9" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2150</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>13</v>
@@ -1228,40 +1230,44 @@
       <c r="A10" s="9">
         <v>20</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="4">
+        <v>21</v>
+      </c>
       <c r="C10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="4">
+        <v>93</v>
+      </c>
       <c r="C11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>930</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="38"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="11">
         <f>SUM(C6:C11)</f>
-        <v>1000000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="45"/>
+      <c r="C13" s="38"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
@@ -1278,19 +1284,19 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="18"/>
-      <c r="C16" s="46"/>
+      <c r="C16" s="39"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="19"/>
-      <c r="C17" s="46"/>
+      <c r="C17" s="39"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="46"/>
+      <c r="C18" s="39"/>
     </row>
     <row r="19" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
@@ -1302,11 +1308,11 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="31" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="27"/>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="30" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1326,11 +1332,11 @@
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
     </row>
     <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
@@ -1338,21 +1344,21 @@
       </c>
       <c r="B25" s="6">
         <f ca="1">B2</f>
-        <v>44476</v>
+        <v>44485</v>
       </c>
       <c r="C25" s="28"/>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="36"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
     </row>
     <row r="27" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="39"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="41"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
     </row>
     <row r="28" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
@@ -1370,11 +1376,11 @@
         <v>1000</v>
       </c>
       <c r="B29" s="4">
-        <v>500</v>
+        <v>153</v>
       </c>
       <c r="C29" s="21">
         <f t="shared" ref="C29:C34" si="1">SUM(A29*B29)</f>
-        <v>500000</v>
+        <v>153000</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1382,11 +1388,11 @@
         <v>500</v>
       </c>
       <c r="B30" s="4">
-        <v>800</v>
+        <v>274</v>
       </c>
       <c r="C30" s="21">
         <f t="shared" si="1"/>
-        <v>400000</v>
+        <v>137000</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1394,51 +1400,57 @@
         <v>100</v>
       </c>
       <c r="B31" s="4">
-        <v>1000</v>
+        <v>565</v>
       </c>
       <c r="C31" s="21">
         <f t="shared" si="1"/>
-        <v>100000</v>
+        <v>56500</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>50</v>
       </c>
-      <c r="B32" s="4"/>
+      <c r="B32" s="4">
+        <v>43</v>
+      </c>
       <c r="C32" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <v>20</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="4">
+        <v>21</v>
+      </c>
       <c r="C33" s="21">
         <f>SUM(A33*B33)</f>
-        <v>0</v>
+        <v>420</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>10</v>
       </c>
-      <c r="B34" s="4"/>
+      <c r="B34" s="4">
+        <v>93</v>
+      </c>
       <c r="C34" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>930</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="43"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="22">
         <f>SUM(C29:C34)</f>
-        <v>1000000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1446,11 +1458,11 @@
         <f>A13</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="B36" s="44" t="str">
+      <c r="B36" s="37" t="str">
         <f>B13</f>
         <v>Ten Lac Taka Only.</v>
       </c>
-      <c r="C36" s="45"/>
+      <c r="C36" s="38"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
@@ -1467,19 +1479,19 @@
       </c>
     </row>
     <row r="39" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
+      <c r="A39" s="36"/>
       <c r="B39" s="19"/>
-      <c r="C39" s="46"/>
+      <c r="C39" s="39"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="14"/>
-      <c r="C40" s="46"/>
+      <c r="C40" s="39"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="14"/>
-      <c r="C41" s="46"/>
+      <c r="C41" s="39"/>
       <c r="L41" s="1" t="s">
         <v>13</v>
       </c>
@@ -1495,18 +1507,24 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="49" t="str">
+      <c r="A43" s="32" t="str">
         <f>A20</f>
         <v>Manager at Mugdho Corporation</v>
       </c>
       <c r="B43" s="26"/>
-      <c r="C43" s="50" t="str">
+      <c r="C43" s="33" t="str">
         <f>C20</f>
         <v>Finace Officer at bKash Natore Office</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="B36:C36"/>
@@ -1515,12 +1533,6 @@
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1" right="0" top="0.25" bottom="0" header="0" footer="0"/>
